--- a/smartMeter/sourceData3/bus1P1.xlsx
+++ b/smartMeter/sourceData3/bus1P1.xlsx
@@ -126,9 +126,6 @@
     <t>2015/11/28 22:13:06</t>
   </si>
   <si>
-    <t>000644</t>
-  </si>
-  <si>
     <t>2015/11/28 22:13:11</t>
   </si>
   <si>
@@ -331,6 +328,10 @@
   </si>
   <si>
     <t>2015/11/28 22:17:11</t>
+  </si>
+  <si>
+    <t>000600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -679,7 +680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -1008,10 +1011,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1025,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1042,10 +1045,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1059,10 +1062,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1076,10 +1079,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1093,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1110,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1127,10 +1130,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1144,10 +1147,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1161,10 +1164,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1178,10 +1181,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1195,10 +1198,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1212,10 +1215,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1229,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1246,10 +1249,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1263,10 +1266,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1280,10 +1283,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1297,10 +1300,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1314,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1331,10 +1334,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1348,10 +1351,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1365,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1382,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1399,10 +1402,10 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1416,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1433,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1450,10 +1453,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1467,10 +1470,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1484,10 +1487,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1501,10 +1504,10 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1518,10 +1521,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1535,10 +1538,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1552,10 +1555,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1569,10 +1572,10 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1586,10 +1589,10 @@
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1603,10 +1606,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1620,10 +1623,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1637,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1654,10 +1657,10 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1674,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1691,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1708,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1725,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1742,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1759,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1776,7 +1779,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1793,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
